--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H2">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I2">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J2">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>8.650566327080998</v>
+        <v>6.564379421655499</v>
       </c>
       <c r="R2">
-        <v>34.60226530832399</v>
+        <v>26.25751768662199</v>
       </c>
       <c r="S2">
-        <v>0.07992441694107567</v>
+        <v>0.14827997342827</v>
       </c>
       <c r="T2">
-        <v>0.05210534453722103</v>
+        <v>0.1209712412958667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H3">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I3">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J3">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.6856336214929999</v>
+        <v>0.6428580703021666</v>
       </c>
       <c r="R3">
-        <v>4.113801728957999</v>
+        <v>3.857148421813</v>
       </c>
       <c r="S3">
-        <v>0.006334714440773177</v>
+        <v>0.01452124739592128</v>
       </c>
       <c r="T3">
-        <v>0.006194711662233495</v>
+        <v>0.01777030250985389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H4">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I4">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J4">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>1.849705399622</v>
+        <v>1.2220871768205</v>
       </c>
       <c r="R4">
-        <v>11.098232397732</v>
+        <v>7.332523060923</v>
       </c>
       <c r="S4">
-        <v>0.01708982047969949</v>
+        <v>0.02760520720483777</v>
       </c>
       <c r="T4">
-        <v>0.01671212036799402</v>
+        <v>0.03378173165860059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H5">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I5">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J5">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>8.127722283166499</v>
+        <v>6.883914176594</v>
       </c>
       <c r="R5">
-        <v>32.51088913266599</v>
+        <v>27.535656706376</v>
       </c>
       <c r="S5">
-        <v>0.07509374993258615</v>
+        <v>0.1554978080365779</v>
       </c>
       <c r="T5">
-        <v>0.0489560745336938</v>
+        <v>0.1268597668455267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H6">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I6">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J6">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>5.389658319441</v>
+        <v>0.1713279030146667</v>
       </c>
       <c r="R6">
-        <v>32.337949916646</v>
+        <v>1.027967418088</v>
       </c>
       <c r="S6">
-        <v>0.0497961962726543</v>
+        <v>0.003870053096371616</v>
       </c>
       <c r="T6">
-        <v>0.0486956563976433</v>
+        <v>0.004735957757391902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H7">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I7">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J7">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>4.491745786415</v>
+        <v>1.4088338032885</v>
       </c>
       <c r="R7">
-        <v>26.95047471849</v>
+        <v>8.453002819730999</v>
       </c>
       <c r="S7">
-        <v>0.04150019194730472</v>
+        <v>0.03182354728419757</v>
       </c>
       <c r="T7">
-        <v>0.0405830010878153</v>
+        <v>0.03894390383677859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J8">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N8">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O8">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P8">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q8">
-        <v>4.012155478506</v>
+        <v>3.247161544338</v>
       </c>
       <c r="R8">
-        <v>24.072932871036</v>
+        <v>19.482969266028</v>
       </c>
       <c r="S8">
-        <v>0.03706915537918769</v>
+        <v>0.07334875036676504</v>
       </c>
       <c r="T8">
-        <v>0.0362498943375531</v>
+        <v>0.0897601595234358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J9">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P9">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q9">
         <v>0.317998682018</v>
@@ -1013,10 +1013,10 @@
         <v>2.861988138162</v>
       </c>
       <c r="S9">
-        <v>0.002938057265540367</v>
+        <v>0.007183136910748864</v>
       </c>
       <c r="T9">
-        <v>0.004309685411391172</v>
+        <v>0.01318549079084879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J10">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N10">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O10">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P10">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q10">
-        <v>0.8578982429720001</v>
+        <v>0.6045224124780001</v>
       </c>
       <c r="R10">
-        <v>7.721084186748</v>
+        <v>5.440701712302</v>
       </c>
       <c r="S10">
-        <v>0.007926303813157081</v>
+        <v>0.0136552995342285</v>
       </c>
       <c r="T10">
-        <v>0.01162668825773708</v>
+        <v>0.02506590483962816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J11">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N11">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O11">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P11">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q11">
-        <v>3.769659031929</v>
+        <v>3.405223853304</v>
       </c>
       <c r="R11">
-        <v>22.617954191574</v>
+        <v>20.431343119824</v>
       </c>
       <c r="S11">
-        <v>0.03482867927968943</v>
+        <v>0.07691915260405355</v>
       </c>
       <c r="T11">
-        <v>0.03405893473672487</v>
+        <v>0.09412942106885215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J12">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N12">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O12">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P12">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q12">
-        <v>2.499737743866</v>
+        <v>0.08474972916800001</v>
       </c>
       <c r="R12">
-        <v>22.49763969479401</v>
+        <v>0.762747562512</v>
       </c>
       <c r="S12">
-        <v>0.0230956071695142</v>
+        <v>0.001914375568789847</v>
       </c>
       <c r="T12">
-        <v>0.03387776080918909</v>
+        <v>0.00351406102182631</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J13">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N13">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O13">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P13">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q13">
-        <v>2.08328354279</v>
+        <v>0.6968992275660001</v>
       </c>
       <c r="R13">
-        <v>18.74955188511</v>
+        <v>6.272093048094001</v>
       </c>
       <c r="S13">
-        <v>0.01924789848257413</v>
+        <v>0.01574196010132631</v>
       </c>
       <c r="T13">
-        <v>0.02823375441425625</v>
+        <v>0.02889621519469378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H14">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I14">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J14">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N14">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O14">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P14">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q14">
-        <v>0.02756567294366667</v>
+        <v>0.157069342405</v>
       </c>
       <c r="R14">
-        <v>0.165394037662</v>
+        <v>0.9424160544299999</v>
       </c>
       <c r="S14">
-        <v>0.0002546850985598268</v>
+        <v>0.003547972538177198</v>
       </c>
       <c r="T14">
-        <v>0.0002490563331617331</v>
+        <v>0.004341813315416138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H15">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I15">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J15">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P15">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q15">
-        <v>0.002184822525444444</v>
+        <v>0.01538200153833333</v>
       </c>
       <c r="R15">
-        <v>0.019663402729</v>
+        <v>0.138438013845</v>
       </c>
       <c r="S15">
-        <v>2.018603867809412E-05</v>
+        <v>0.0003474574872764527</v>
       </c>
       <c r="T15">
-        <v>2.960986411841091E-05</v>
+        <v>0.0006377989944531772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H16">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I16">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J16">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N16">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O16">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P16">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q16">
-        <v>0.005894223818444444</v>
+        <v>0.029241519555</v>
       </c>
       <c r="R16">
-        <v>0.053048014366</v>
+        <v>0.263173675995</v>
       </c>
       <c r="S16">
-        <v>5.445798392812691E-05</v>
+        <v>0.0006605242421414053</v>
       </c>
       <c r="T16">
-        <v>7.988162164894292E-05</v>
+        <v>0.00121246976357296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H17">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I17">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J17">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N17">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O17">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P17">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q17">
-        <v>0.02589959151383333</v>
+        <v>0.16471501774</v>
       </c>
       <c r="R17">
-        <v>0.155397549083</v>
+        <v>0.9882901064399999</v>
       </c>
       <c r="S17">
-        <v>0.0002392918188806782</v>
+        <v>0.003720677444870277</v>
       </c>
       <c r="T17">
-        <v>0.0002340032585456649</v>
+        <v>0.004553160064989052</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H18">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I18">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J18">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N18">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O18">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P18">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q18">
-        <v>0.01717454706366667</v>
+        <v>0.004099452413333333</v>
       </c>
       <c r="R18">
-        <v>0.154570923573</v>
+        <v>0.03689507172</v>
       </c>
       <c r="S18">
-        <v>0.000158679282764809</v>
+        <v>9.260078613283799E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002327584959089411</v>
+        <v>0.0001699796102943278</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H19">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I19">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J19">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N19">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O19">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P19">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q19">
-        <v>0.01431328199944444</v>
+        <v>0.033709903835</v>
       </c>
       <c r="R19">
-        <v>0.128819537995</v>
+        <v>0.303389134515</v>
       </c>
       <c r="S19">
-        <v>0.0001322434480084276</v>
+        <v>0.0007614586732195228</v>
       </c>
       <c r="T19">
-        <v>0.0001939811266848015</v>
+        <v>0.001397746757175652</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H20">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I20">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J20">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N20">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O20">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P20">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q20">
-        <v>6.427881436217499</v>
+        <v>6.773423108228499</v>
       </c>
       <c r="R20">
-        <v>25.71152574486999</v>
+        <v>27.093692432914</v>
       </c>
       <c r="S20">
-        <v>0.0593885598388797</v>
+        <v>0.1530019723103173</v>
       </c>
       <c r="T20">
-        <v>0.03871734684352578</v>
+        <v>0.1248235893436312</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H21">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I21">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J21">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.456959</v>
       </c>
       <c r="O21">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P21">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q21">
-        <v>0.5094662546941666</v>
+        <v>0.6633299858218333</v>
       </c>
       <c r="R21">
-        <v>3.056797528165</v>
+        <v>3.979979914931</v>
       </c>
       <c r="S21">
-        <v>0.004707066776670188</v>
+        <v>0.01498367878422095</v>
       </c>
       <c r="T21">
-        <v>0.004603036447652671</v>
+        <v>0.01833620056503371</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H22">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I22">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J22">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N22">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O22">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P22">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q22">
-        <v>1.374440302651667</v>
+        <v>1.2610047335835</v>
       </c>
       <c r="R22">
-        <v>8.246641815909999</v>
+        <v>7.566028401501001</v>
       </c>
       <c r="S22">
-        <v>0.01269874545275207</v>
+        <v>0.02848429933404554</v>
       </c>
       <c r="T22">
-        <v>0.01241809197358175</v>
+        <v>0.03485751617243248</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H23">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I23">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J23">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N23">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O23">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P23">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q23">
-        <v>6.03937744736375</v>
+        <v>7.103133497278</v>
       </c>
       <c r="R23">
-        <v>24.157509789455</v>
+        <v>28.412533989112</v>
       </c>
       <c r="S23">
-        <v>0.05579908909044885</v>
+        <v>0.160449659987541</v>
       </c>
       <c r="T23">
-        <v>0.03637725332503125</v>
+        <v>0.130899635907893</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H24">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I24">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J24">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N24">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O24">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P24">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q24">
-        <v>4.004834290517501</v>
+        <v>0.1767838668093333</v>
       </c>
       <c r="R24">
-        <v>24.029005743105</v>
+        <v>1.060703200856</v>
       </c>
       <c r="S24">
-        <v>0.0370015133706564</v>
+        <v>0.003993295540863764</v>
       </c>
       <c r="T24">
-        <v>0.0361837472770939</v>
+        <v>0.004886775070875211</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H25">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I25">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J25">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N25">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O25">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P25">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q25">
-        <v>3.337632273429167</v>
+        <v>1.4536983354995</v>
       </c>
       <c r="R25">
-        <v>20.025793640575</v>
+        <v>8.722190012997</v>
       </c>
       <c r="S25">
-        <v>0.03083709243202306</v>
+        <v>0.03283697311119541</v>
       </c>
       <c r="T25">
-        <v>0.03015556548034545</v>
+        <v>0.04018407852880326</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H26">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I26">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J26">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N26">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O26">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P26">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q26">
-        <v>12.18615039060533</v>
+        <v>0.09376203210133334</v>
       </c>
       <c r="R26">
-        <v>73.11690234363199</v>
+        <v>0.562572192608</v>
       </c>
       <c r="S26">
-        <v>0.1125904279441603</v>
+        <v>0.002117950644763315</v>
       </c>
       <c r="T26">
-        <v>0.1101020801430824</v>
+        <v>0.002591831309819537</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H27">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I27">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J27">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.456959</v>
       </c>
       <c r="O27">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P27">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q27">
-        <v>0.9658598187048887</v>
+        <v>0.009182235692444444</v>
       </c>
       <c r="R27">
-        <v>8.692738368343999</v>
+        <v>0.082640121232</v>
       </c>
       <c r="S27">
-        <v>0.008923783708256914</v>
+        <v>0.0002074136147578747</v>
       </c>
       <c r="T27">
-        <v>0.01308984032168336</v>
+        <v>0.0003807320313210483</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.180848</v>
+      </c>
+      <c r="I28">
+        <v>0.005450536340515544</v>
+      </c>
+      <c r="J28">
+        <v>0.007350186424898878</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.341005333333332</v>
-      </c>
-      <c r="H28">
-        <v>19.023016</v>
-      </c>
-      <c r="I28">
-        <v>0.3799844996097436</v>
-      </c>
-      <c r="J28">
-        <v>0.4506049893345302</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N28">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O28">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P28">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q28">
-        <v>2.605700866952889</v>
+        <v>0.017455629808</v>
       </c>
       <c r="R28">
-        <v>23.451307802576</v>
+        <v>0.157100668272</v>
       </c>
       <c r="S28">
-        <v>0.02407462293677815</v>
+        <v>0.0003942977938729809</v>
       </c>
       <c r="T28">
-        <v>0.03531382879165688</v>
+        <v>0.0007237798742474712</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H29">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I29">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J29">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N29">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O29">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P29">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q29">
-        <v>11.44961408661466</v>
+        <v>0.09832609307733334</v>
       </c>
       <c r="R29">
-        <v>68.697684519688</v>
+        <v>0.589956558464</v>
       </c>
       <c r="S29">
-        <v>0.1057854128241557</v>
+        <v>0.00222104627601426</v>
       </c>
       <c r="T29">
-        <v>0.1034474618615956</v>
+        <v>0.002717994063254081</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H30">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I30">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J30">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N30">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O30">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P30">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q30">
-        <v>7.592472486925333</v>
+        <v>0.002447154759111111</v>
       </c>
       <c r="R30">
-        <v>68.33225238232801</v>
+        <v>0.022024392832</v>
       </c>
       <c r="S30">
-        <v>0.07014846354729116</v>
+        <v>5.527773752059378E-05</v>
       </c>
       <c r="T30">
-        <v>0.1028971809117083</v>
+        <v>0.0001014687744467284</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H31">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I31">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J31">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N31">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O31">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P31">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q31">
-        <v>6.327572970368888</v>
+        <v>0.02012301724266667</v>
       </c>
       <c r="R31">
-        <v>56.94815673331999</v>
+        <v>0.181107155184</v>
       </c>
       <c r="S31">
-        <v>0.0584617886491015</v>
+        <v>0.0004545502735865204</v>
       </c>
       <c r="T31">
-        <v>0.08575459730480366</v>
+        <v>0.0008343803718100124</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H32">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I32">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J32">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N32">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O32">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P32">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q32">
-        <v>0.7658056684833333</v>
+        <v>0.3665542364523333</v>
       </c>
       <c r="R32">
-        <v>4.594834010900001</v>
+        <v>2.199325418714</v>
       </c>
       <c r="S32">
-        <v>0.007075440986111059</v>
+        <v>0.008279937668116133</v>
       </c>
       <c r="T32">
-        <v>0.006919067497343633</v>
+        <v>0.0101325315321386</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H33">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I33">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J33">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.456959</v>
       </c>
       <c r="O33">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P33">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q33">
-        <v>0.06069684850555555</v>
+        <v>0.03589712507011111</v>
       </c>
       <c r="R33">
-        <v>0.5462716365500001</v>
+        <v>0.323074125631</v>
       </c>
       <c r="S33">
-        <v>0.0005607910561624788</v>
+        <v>0.0008108648829754833</v>
       </c>
       <c r="T33">
-        <v>0.0008225956185158218</v>
+        <v>0.001488437653345699</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H34">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I34">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J34">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N34">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O34">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P34">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q34">
-        <v>0.1637482248555556</v>
+        <v>0.068241215689</v>
       </c>
       <c r="R34">
-        <v>1.4737340237</v>
+        <v>0.614170941201</v>
       </c>
       <c r="S34">
-        <v>0.001512904577789949</v>
+        <v>0.001541471782648093</v>
       </c>
       <c r="T34">
-        <v>0.002219202077577301</v>
+        <v>0.002829552359505388</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H35">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I35">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J35">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N35">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O35">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P35">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q35">
-        <v>0.7195200361416667</v>
+        <v>0.3843970225853333</v>
       </c>
       <c r="R35">
-        <v>4.31712021685</v>
+        <v>2.306382135512</v>
       </c>
       <c r="S35">
-        <v>0.006647798212472562</v>
+        <v>0.008682980771468667</v>
       </c>
       <c r="T35">
-        <v>0.006500876006330671</v>
+        <v>0.01062575347621873</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H36">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I36">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J36">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N36">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O36">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P36">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q36">
-        <v>0.4771284024833334</v>
+        <v>0.009566931561777778</v>
       </c>
       <c r="R36">
-        <v>4.294155622350001</v>
+        <v>0.086102384056</v>
       </c>
       <c r="S36">
-        <v>0.004408290501758988</v>
+        <v>0.0002161033460513662</v>
       </c>
       <c r="T36">
-        <v>0.006466295088060786</v>
+        <v>0.0003966830529107702</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H37">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I37">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J37">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N37">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O37">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P37">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q37">
-        <v>0.3976392128055556</v>
+        <v>0.07866912709966667</v>
       </c>
       <c r="R37">
-        <v>3.57875291525</v>
+        <v>0.708022143897</v>
       </c>
       <c r="S37">
-        <v>0.003673873019954796</v>
+        <v>0.001777023436134943</v>
       </c>
       <c r="T37">
-        <v>0.005389015776889824</v>
+        <v>0.003261935063108384</v>
       </c>
     </row>
   </sheetData>
